--- a/docs/StructureDefinition-Encounter-birth.xlsx
+++ b/docs/StructureDefinition-Encounter-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -555,7 +555,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>Father, Mother</t>
+    <t>Vital Records Role</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/vr-common-library/ValueSet/ValueSet-role-vr</t>
@@ -1219,7 +1219,7 @@
     <t>Encounter.participant:attendant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/vr-common-library/StructureDefinition/Practitioner-vr)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/bfdr/StructureDefinition/Practitioner-birth-attendant)
 </t>
   </si>
   <si>
@@ -1336,6 +1336,10 @@
   </si>
   <si>
     <t>Encounter.participant:certifier.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/bfdr/StructureDefinition/Practitioner-birth-certifier)
+</t>
   </si>
   <si>
     <t>Encounter.appointment</t>
@@ -10214,7 +10218,7 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>363</v>
@@ -10300,10 +10304,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10326,13 +10330,13 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10383,7 +10387,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10401,21 +10405,21 @@
         <v>336</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10441,13 +10445,13 @@
         <v>230</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10497,7 +10501,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10512,24 +10516,24 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10552,16 +10556,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10611,7 +10615,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10626,28 +10630,28 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10669,13 +10673,13 @@
         <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10704,10 +10708,10 @@
         <v>112</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10725,7 +10729,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10740,28 +10744,28 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10780,16 +10784,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10839,7 +10843,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10854,24 +10858,24 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10897,10 +10901,10 @@
         <v>255</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10951,7 +10955,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10969,7 +10973,7 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -10980,10 +10984,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11092,10 +11096,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11206,10 +11210,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11322,14 +11326,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11348,16 +11352,16 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11407,7 +11411,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>88</v>
@@ -11422,24 +11426,24 @@
         <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11465,10 +11469,10 @@
         <v>166</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11498,10 +11502,10 @@
         <v>112</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11519,7 +11523,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11548,10 +11552,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11574,13 +11578,13 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11631,7 +11635,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11649,7 +11653,7 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11660,10 +11664,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11686,16 +11690,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11745,7 +11749,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11763,7 +11767,7 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
@@ -11774,10 +11778,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11803,13 +11807,13 @@
         <v>255</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11859,7 +11863,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11877,7 +11881,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -11888,10 +11892,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12000,10 +12004,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12114,10 +12118,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12230,10 +12234,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12259,10 +12263,10 @@
         <v>182</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12313,7 +12317,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12337,15 +12341,15 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12368,13 +12372,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12425,7 +12429,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12443,7 +12447,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12454,10 +12458,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12483,10 +12487,10 @@
         <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12516,10 +12520,10 @@
         <v>112</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -12537,7 +12541,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12555,21 +12559,21 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12595,10 +12599,10 @@
         <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12628,10 +12632,10 @@
         <v>303</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12649,7 +12653,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12673,15 +12677,15 @@
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12707,16 +12711,16 @@
         <v>166</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -12744,10 +12748,10 @@
         <v>303</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -12765,7 +12769,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12783,21 +12787,21 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12823,10 +12827,10 @@
         <v>166</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12856,10 +12860,10 @@
         <v>112</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -12877,7 +12881,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12895,21 +12899,21 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12935,10 +12939,10 @@
         <v>166</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12968,10 +12972,10 @@
         <v>112</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -12989,7 +12993,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13007,21 +13011,21 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13044,13 +13048,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13101,7 +13105,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13119,21 +13123,21 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13159,10 +13163,10 @@
         <v>166</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13192,10 +13196,10 @@
         <v>112</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13213,7 +13217,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13231,21 +13235,21 @@
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13271,13 +13275,13 @@
         <v>255</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13327,7 +13331,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13345,7 +13349,7 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13356,10 +13360,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13468,10 +13472,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13582,10 +13586,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13698,10 +13702,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13724,13 +13728,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13781,7 +13785,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>88</v>
@@ -13796,24 +13800,24 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13839,13 +13843,13 @@
         <v>108</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13874,10 +13878,10 @@
         <v>198</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -13895,7 +13899,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13913,7 +13917,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -13924,10 +13928,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13953,13 +13957,13 @@
         <v>166</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -13988,10 +13992,10 @@
         <v>112</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14009,7 +14013,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14038,10 +14042,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14067,10 +14071,10 @@
         <v>230</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14121,7 +14125,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14150,10 +14154,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14176,13 +14180,13 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14233,7 +14237,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14251,21 +14255,21 @@
         <v>365</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14288,16 +14292,16 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14347,7 +14351,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14362,10 +14366,10 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-Encounter-birth.xlsx
+++ b/docs/StructureDefinition-Encounter-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Encounter-birth.xlsx
+++ b/docs/StructureDefinition-Encounter-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
